--- a/medicine/Enfance/France_Lorrain/France_Lorrain.xlsx
+++ b/medicine/Enfance/France_Lorrain/France_Lorrain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">France Lorrain est une romancière québécoise de romans historiques et de romans pour la jeunesse.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">France Lorrain est enseignante de niveau primaire et chargée de cours à l'Université de Montréal[1]. Sa série La Promesse des Gélinas l'a fait connaître comme romancière au Québec, chaque tome s'étant vendu à plus de 75 000 exemplaires[2]. Ses romans mettent en scène le Québec du XXe siècle. Son mari est illustrateur professionnel et signe la couverture de tous ses romans[3].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">France Lorrain est enseignante de niveau primaire et chargée de cours à l'Université de Montréal. Sa série La Promesse des Gélinas l'a fait connaître comme romancière au Québec, chaque tome s'étant vendu à plus de 75 000 exemplaires. Ses romans mettent en scène le Québec du XXe siècle. Son mari est illustrateur professionnel et signe la couverture de tous ses romans.  
 </t>
         </is>
       </c>
@@ -544,22 +558,163 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série La Promesse des Gélinas
-Adèle, Guy St-Jean Éditeur, 2015,  (ISBN 9782894559529)
+          <t>Série La Promesse des Gélinas</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Adèle, Guy St-Jean Éditeur, 2015,  (ISBN 9782894559529)
 Édouard, Guy St-Jean Éditeur, 2015,  (ISBN 9782894554418)
 Florie, Guy St-Jean Éditeur, 2016,  (ISBN 9782897580643)
-Laurent, Guy St-Jean Éditeur, 2016,  (ISBN 9782897581534)
-Série Au chant des marées
-De Québec à l'Île Verte, Guy St-Jean Éditeur, 2017,  (ISBN 9782897583149)
-La vie sur l'Île Verte, Guy St-Jean Éditeur, 2018,  (ISBN 9782897583828)
-Série À l'ombre de la mine
-Jeanne et Kristoff, Guy St-Jean Éditeur, 2018,  (ISBN 9782897585310)
-Clara et Yuri, Guy St-Jean Éditeur, 2019,  (ISBN 9782897586218)
-Série Marie-Camille
-Guy St-Jean Éditeur, 2019,  (ISBN 9782897588090)
-Guy St-Jean Éditeur, 2020,  (ISBN 9782897588755)
-Série L'Anse-à-la-joie
-Madeleine, Guy St-Jean Éditeur, 2021,  (ISBN 9782898270376)
+Laurent, Guy St-Jean Éditeur, 2016,  (ISBN 9782897581534)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>France_Lorrain</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/France_Lorrain</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Au chant des marées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>De Québec à l'Île Verte, Guy St-Jean Éditeur, 2017,  (ISBN 9782897583149)
+La vie sur l'Île Verte, Guy St-Jean Éditeur, 2018,  (ISBN 9782897583828)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>France_Lorrain</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/France_Lorrain</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série À l'ombre de la mine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Jeanne et Kristoff, Guy St-Jean Éditeur, 2018,  (ISBN 9782897585310)
+Clara et Yuri, Guy St-Jean Éditeur, 2019,  (ISBN 9782897586218)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>France_Lorrain</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/France_Lorrain</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Marie-Camille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Guy St-Jean Éditeur, 2019,  (ISBN 9782897588090)
+Guy St-Jean Éditeur, 2020,  (ISBN 9782897588755)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>France_Lorrain</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/France_Lorrain</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série L'Anse-à-la-joie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Madeleine, Guy St-Jean Éditeur, 2021,  (ISBN 9782898270376)
 Simone, Guy St-Jean Éditeur, 2021,  (ISBN 9782898270406)
 Clémence, Guy St-Jean Éditeur, À venir,  (ISBN 9782898270437)</t>
         </is>
